--- a/processed_files/MACHINE_READABLE_OUTPUT - 2023-11-16 - 2023-11-30.xlsx
+++ b/processed_files/MACHINE_READABLE_OUTPUT - 2023-11-16 - 2023-11-30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>Pay Period</t>
   </si>
@@ -86,66 +86,66 @@
     <t>2023-11-16 - 2023-11-30</t>
   </si>
   <si>
+    <t>Mikayla Napier</t>
+  </si>
+  <si>
+    <t>Cameron Pierre</t>
+  </si>
+  <si>
     <t>Teri Jethani</t>
   </si>
   <si>
-    <t>Cameron Pierre</t>
-  </si>
-  <si>
-    <t>Mikayla Napier</t>
+    <t>Sheena Martin</t>
+  </si>
+  <si>
+    <t>Cecilia Santos</t>
+  </si>
+  <si>
+    <t>Peggy Misquez</t>
   </si>
   <si>
     <t>Chelsie Ellis</t>
   </si>
   <si>
-    <t>Peggy Misquez</t>
+    <t>Bell Gutierrez</t>
+  </si>
+  <si>
+    <t>Desirae Duarte</t>
   </si>
   <si>
     <t>Devan Mitchell</t>
   </si>
   <si>
+    <t>Christina Estrada</t>
+  </si>
+  <si>
+    <t>Michelle Song</t>
+  </si>
+  <si>
+    <t>Jovannah Nieves</t>
+  </si>
+  <si>
+    <t>Izaak Talamaivao</t>
+  </si>
+  <si>
+    <t>Kenneth Inocencio</t>
+  </si>
+  <si>
+    <t>Alicia Leap</t>
+  </si>
+  <si>
+    <t>Toni Lema</t>
+  </si>
+  <si>
+    <t>Andria Cruts</t>
+  </si>
+  <si>
     <t>Jessica Robles</t>
   </si>
   <si>
-    <t>Bell Gutierrez</t>
-  </si>
-  <si>
-    <t>Andria Cruts</t>
-  </si>
-  <si>
-    <t>Kenneth Inocencio</t>
-  </si>
-  <si>
-    <t>Cecilia Santos</t>
-  </si>
-  <si>
-    <t>Desirae Duarte</t>
-  </si>
-  <si>
-    <t>Sheena Martin</t>
-  </si>
-  <si>
-    <t>Toni Lema</t>
-  </si>
-  <si>
-    <t>Michelle Song</t>
-  </si>
-  <si>
-    <t>Christina Estrada</t>
-  </si>
-  <si>
-    <t>Alicia Leap</t>
-  </si>
-  <si>
     <t>Elli Hernandez</t>
   </si>
   <si>
-    <t>Izaak Talamaivao</t>
-  </si>
-  <si>
-    <t>Jovannah Nieves</t>
-  </si>
-  <si>
     <t>Holiday Extra Pay</t>
   </si>
   <si>
@@ -155,55 +155,61 @@
     <t>Prepaid Last Time</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>OA2 Holiday Extra Pay</t>
+  </si>
+  <si>
+    <t>HSS1</t>
+  </si>
+  <si>
+    <t>HSSFXWKND-Worked</t>
+  </si>
+  <si>
+    <t>IHSS-Asleep</t>
+  </si>
+  <si>
+    <t>OA1</t>
+  </si>
+  <si>
+    <t>OT Extra Pay (2023-11-20)</t>
+  </si>
+  <si>
     <t>BST1</t>
   </si>
   <si>
     <t>BST1 Holiday Extra Pay</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>HSS1</t>
-  </si>
-  <si>
-    <t>HSSFXWKND-Worked</t>
-  </si>
-  <si>
-    <t>IHSS-Asleep</t>
-  </si>
-  <si>
-    <t>OA1</t>
-  </si>
-  <si>
-    <t>OT Extra Pay (2023-11-20)</t>
+    <t>CCR-Not-Worked</t>
+  </si>
+  <si>
+    <t>CCR-Worked</t>
   </si>
   <si>
     <t>HSS1 Holiday Extra Pay</t>
   </si>
   <si>
+    <t>IHSS-Asleep Holiday Extra Pay</t>
+  </si>
+  <si>
     <t>OT Extra Pay (2023-11-13)</t>
   </si>
   <si>
     <t>Sick Leave Used</t>
   </si>
   <si>
-    <t>CCR-Not-Worked</t>
-  </si>
-  <si>
-    <t>CCR-Worked</t>
-  </si>
-  <si>
     <t>HSSFXW-Worked</t>
   </si>
   <si>
     <t>HSSFXW-Worked Holiday Extra Pay</t>
   </si>
   <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>OA2 Holiday Extra Pay</t>
+    <t>Bonus</t>
   </si>
   <si>
     <t>BST6</t>
@@ -219,9 +225,6 @@
   </si>
   <si>
     <t>HSS2 Holiday Extra Pay</t>
-  </si>
-  <si>
-    <t>Bonus</t>
   </si>
   <si>
     <t>Gross_Hrs</t>
@@ -613,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,61 +698,61 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>3882.22</v>
+        <v>3179.09</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>24.04</v>
+        <v>18.03</v>
       </c>
       <c r="H2">
-        <v>36.06</v>
+        <v>54.09</v>
       </c>
       <c r="I2">
-        <v>2276.23</v>
+        <v>3045.68</v>
       </c>
       <c r="J2">
-        <v>102.75</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2">
-        <v>44690</v>
+        <v>44287</v>
       </c>
       <c r="L2">
-        <v>556</v>
+        <v>959</v>
       </c>
       <c r="M2">
         <v>136</v>
       </c>
       <c r="N2">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="O2">
-        <v>6.99</v>
+        <v>5.98</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>24</v>
       </c>
       <c r="S2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="V2">
         <v>30</v>
@@ -763,61 +766,61 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>3882.22</v>
+        <v>3179.09</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
       </c>
       <c r="E3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1923.08</v>
+        <v>3125</v>
       </c>
       <c r="H3">
-        <v>5769.24</v>
+        <v>3125</v>
       </c>
       <c r="I3">
-        <v>2276.23</v>
+        <v>3045.68</v>
       </c>
       <c r="J3">
-        <v>102.75</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2">
-        <v>44690</v>
+        <v>44287</v>
       </c>
       <c r="L3">
-        <v>556</v>
+        <v>959</v>
       </c>
       <c r="M3">
         <v>136</v>
       </c>
       <c r="N3">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="O3">
-        <v>6.99</v>
+        <v>5.98</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>24</v>
       </c>
       <c r="S3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="V3">
         <v>30</v>
@@ -828,67 +831,67 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>3882.22</v>
+        <v>4822.72</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>-1923.08</v>
+        <v>30.05</v>
       </c>
       <c r="H4">
-        <v>-1923.08</v>
+        <v>15.02</v>
       </c>
       <c r="I4">
-        <v>2276.23</v>
+        <v>193.33</v>
       </c>
       <c r="J4">
-        <v>102.75</v>
+        <v>92.08</v>
       </c>
       <c r="K4" s="2">
-        <v>44690</v>
+        <v>45229</v>
       </c>
       <c r="L4">
-        <v>556</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>136</v>
+        <v>13.15</v>
       </c>
       <c r="N4">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6.99</v>
+        <v>6.26</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>13.15</v>
       </c>
       <c r="R4">
         <v>24</v>
       </c>
       <c r="S4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="V4">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -902,19 +905,19 @@
         <v>4822.72</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>30.05</v>
+        <v>2403.85</v>
       </c>
       <c r="H5">
-        <v>15.02</v>
+        <v>7211.55</v>
       </c>
       <c r="I5">
         <v>193.33</v>
@@ -970,19 +973,19 @@
         <v>4822.72</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2403.85</v>
+        <v>-2403.85</v>
       </c>
       <c r="H6">
-        <v>7211.55</v>
+        <v>-2403.85</v>
       </c>
       <c r="I6">
         <v>193.33</v>
@@ -1032,67 +1035,67 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>4822.72</v>
+        <v>3882.22</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F7">
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <v>24.04</v>
+      </c>
+      <c r="H7">
+        <v>36.06</v>
+      </c>
+      <c r="I7">
+        <v>2276.23</v>
+      </c>
+      <c r="J7">
+        <v>102.75</v>
+      </c>
+      <c r="K7" s="2">
+        <v>44690</v>
+      </c>
+      <c r="L7">
+        <v>556</v>
+      </c>
+      <c r="M7">
+        <v>136</v>
+      </c>
+      <c r="N7">
+        <v>146</v>
+      </c>
+      <c r="O7">
+        <v>6.99</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>24</v>
+      </c>
+      <c r="S7">
+        <v>23</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>-2403.85</v>
-      </c>
-      <c r="H7">
-        <v>-2403.85</v>
-      </c>
-      <c r="I7">
-        <v>193.33</v>
-      </c>
-      <c r="J7">
-        <v>92.08</v>
-      </c>
-      <c r="K7" s="2">
-        <v>45229</v>
-      </c>
-      <c r="L7">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>13.15</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>6.26</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>13.15</v>
-      </c>
-      <c r="R7">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>24</v>
-      </c>
       <c r="V7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1103,10 +1106,10 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>3179.09</v>
+        <v>3882.22</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>180</v>
@@ -1115,49 +1118,49 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>18.03</v>
+        <v>1923.08</v>
       </c>
       <c r="H8">
-        <v>54.09</v>
+        <v>5769.24</v>
       </c>
       <c r="I8">
-        <v>3045.68</v>
+        <v>2276.23</v>
       </c>
       <c r="J8">
-        <v>88</v>
+        <v>102.75</v>
       </c>
       <c r="K8" s="2">
-        <v>44287</v>
+        <v>44690</v>
       </c>
       <c r="L8">
-        <v>959</v>
+        <v>556</v>
       </c>
       <c r="M8">
         <v>136</v>
       </c>
       <c r="N8">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="O8">
-        <v>5.98</v>
+        <v>6.99</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>24</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>30</v>
@@ -1171,10 +1174,10 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>3179.09</v>
+        <v>3882.22</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -1183,49 +1186,49 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3125</v>
+        <v>-1923.08</v>
       </c>
       <c r="H9">
-        <v>3125</v>
+        <v>-1923.08</v>
       </c>
       <c r="I9">
-        <v>3045.68</v>
+        <v>2276.23</v>
       </c>
       <c r="J9">
-        <v>88</v>
+        <v>102.75</v>
       </c>
       <c r="K9" s="2">
-        <v>44287</v>
+        <v>44690</v>
       </c>
       <c r="L9">
-        <v>959</v>
+        <v>556</v>
       </c>
       <c r="M9">
         <v>136</v>
       </c>
       <c r="N9">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="O9">
-        <v>5.98</v>
+        <v>6.99</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>24</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>30</v>
@@ -1239,28 +1242,28 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>1957.6</v>
+        <v>31.5</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10">
-        <v>3426</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>57.1</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="H10">
-        <v>1827.2</v>
+        <v>31.5</v>
       </c>
       <c r="I10">
-        <v>1070.15</v>
+        <v>1743.56</v>
       </c>
       <c r="J10">
-        <v>57.1</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>44911</v>
@@ -1269,31 +1272,31 @@
         <v>335</v>
       </c>
       <c r="M10">
-        <v>42.8</v>
+        <v>69.73</v>
       </c>
       <c r="N10">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.28</v>
+        <v>0.04</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.3</v>
+        <v>69.73</v>
       </c>
       <c r="R10">
         <v>24</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1304,31 +1307,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>1957.6</v>
+        <v>2136.9</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>489</v>
+        <v>61</v>
       </c>
       <c r="F11">
-        <v>8.15</v>
+        <v>1.02</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>27.25</v>
       </c>
       <c r="H11">
-        <v>130.4</v>
+        <v>27.8</v>
       </c>
       <c r="I11">
-        <v>1070.15</v>
+        <v>1638.93</v>
       </c>
       <c r="J11">
-        <v>57.1</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="K11" s="2">
         <v>44911</v>
@@ -1337,19 +1340,19 @@
         <v>335</v>
       </c>
       <c r="M11">
-        <v>42.8</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="N11">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.28</v>
+        <v>2.97</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.3</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="R11">
         <v>24</v>
@@ -1375,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>2282.67</v>
+        <v>2136.9</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>4398</v>
       </c>
       <c r="F12">
-        <v>0.93</v>
+        <v>73.3</v>
       </c>
       <c r="G12">
-        <v>31.83</v>
+        <v>27.25</v>
       </c>
       <c r="H12">
-        <v>29.6</v>
+        <v>1997.42</v>
       </c>
       <c r="I12">
-        <v>1264.76</v>
+        <v>1638.93</v>
       </c>
       <c r="J12">
-        <v>80.87</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="K12" s="2">
         <v>44911</v>
@@ -1405,31 +1408,31 @@
         <v>335</v>
       </c>
       <c r="M12">
-        <v>50.59</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="N12">
-        <v>31.85</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.23</v>
+        <v>2.97</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18.74</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="R12">
         <v>24</v>
       </c>
       <c r="S12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1443,28 +1446,28 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>2282.67</v>
+        <v>2136.9</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>1918</v>
+        <v>492</v>
       </c>
       <c r="F13">
-        <v>31.97</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G13">
-        <v>25.5</v>
+        <v>13.62</v>
       </c>
       <c r="H13">
-        <v>815.24</v>
+        <v>111.68</v>
       </c>
       <c r="I13">
-        <v>1264.76</v>
+        <v>1638.93</v>
       </c>
       <c r="J13">
-        <v>80.87</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>44911</v>
@@ -1473,31 +1476,31 @@
         <v>335</v>
       </c>
       <c r="M13">
-        <v>50.59</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="N13">
-        <v>31.85</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.23</v>
+        <v>2.97</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18.74</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="R13">
         <v>24</v>
       </c>
       <c r="S13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1508,25 +1511,25 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>2282.67</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>1917</v>
+        <v>56</v>
       </c>
       <c r="F14">
-        <v>31.95</v>
+        <v>0.93</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>31.83</v>
       </c>
       <c r="H14">
-        <v>1118.25</v>
+        <v>29.6</v>
       </c>
       <c r="I14">
         <v>1264.76</v>
@@ -1576,25 +1579,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>2282.67</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15">
-        <v>487</v>
+        <v>1918</v>
       </c>
       <c r="F15">
-        <v>8.119999999999999</v>
+        <v>31.97</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>815.24</v>
       </c>
       <c r="I15">
         <v>1264.76</v>
@@ -1644,25 +1647,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>2282.67</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>474</v>
+        <v>1917</v>
       </c>
       <c r="F16">
-        <v>7.9</v>
+        <v>31.95</v>
       </c>
       <c r="G16">
-        <v>26.5</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>209.35</v>
+        <v>1118.25</v>
       </c>
       <c r="I16">
         <v>1264.76</v>
@@ -1712,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>2282.67</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>478.2</v>
+        <v>487</v>
       </c>
       <c r="F17">
-        <v>7.97</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G17">
-        <v>13.83</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>110.23</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1264.76</v>
@@ -1783,28 +1786,28 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>743.9299999999999</v>
+        <v>2282.67</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>1463</v>
+        <v>474</v>
       </c>
       <c r="F18">
-        <v>24.38</v>
+        <v>7.9</v>
       </c>
       <c r="G18">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="H18">
-        <v>621.6900000000001</v>
+        <v>209.35</v>
       </c>
       <c r="I18">
-        <v>1985.34</v>
+        <v>1264.76</v>
       </c>
       <c r="J18">
-        <v>97.88</v>
+        <v>80.87</v>
       </c>
       <c r="K18" s="2">
         <v>44911</v>
@@ -1813,19 +1816,19 @@
         <v>335</v>
       </c>
       <c r="M18">
-        <v>79.42</v>
+        <v>50.59</v>
       </c>
       <c r="N18">
-        <v>38</v>
+        <v>31.85</v>
       </c>
       <c r="O18">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>41.42</v>
+        <v>18.74</v>
       </c>
       <c r="R18">
         <v>24</v>
@@ -1851,28 +1854,28 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>743.9299999999999</v>
+        <v>2282.67</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19">
-        <v>4410</v>
+        <v>478.2</v>
       </c>
       <c r="F19">
-        <v>73.5</v>
+        <v>7.97</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>13.83</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>110.23</v>
       </c>
       <c r="I19">
-        <v>1985.34</v>
+        <v>1264.76</v>
       </c>
       <c r="J19">
-        <v>97.88</v>
+        <v>80.87</v>
       </c>
       <c r="K19" s="2">
         <v>44911</v>
@@ -1881,19 +1884,19 @@
         <v>335</v>
       </c>
       <c r="M19">
-        <v>79.42</v>
+        <v>50.59</v>
       </c>
       <c r="N19">
-        <v>38</v>
+        <v>31.85</v>
       </c>
       <c r="O19">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41.42</v>
+        <v>18.74</v>
       </c>
       <c r="R19">
         <v>24</v>
@@ -1916,31 +1919,31 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>743.9299999999999</v>
+        <v>1958.88</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="E20">
-        <v>481</v>
+        <v>3426</v>
       </c>
       <c r="F20">
-        <v>8.02</v>
+        <v>57.1</v>
       </c>
       <c r="G20">
-        <v>12.75</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>102.26</v>
+        <v>1827.2</v>
       </c>
       <c r="I20">
-        <v>1985.34</v>
+        <v>1070.15</v>
       </c>
       <c r="J20">
-        <v>97.88</v>
+        <v>57.1</v>
       </c>
       <c r="K20" s="2">
         <v>44911</v>
@@ -1949,31 +1952,31 @@
         <v>335</v>
       </c>
       <c r="M20">
-        <v>79.42</v>
+        <v>42.8</v>
       </c>
       <c r="N20">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="O20">
-        <v>3.92</v>
+        <v>2.28</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>41.42</v>
+        <v>3.3</v>
       </c>
       <c r="R20">
         <v>24</v>
       </c>
       <c r="S20">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -1984,31 +1987,31 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>743.9299999999999</v>
+        <v>1958.88</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="E21">
-        <v>67.2</v>
+        <v>494</v>
       </c>
       <c r="F21">
-        <v>1.12</v>
+        <v>8.23</v>
       </c>
       <c r="G21">
-        <v>9.65</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>10.81</v>
+        <v>131.68</v>
       </c>
       <c r="I21">
-        <v>1985.34</v>
+        <v>1070.15</v>
       </c>
       <c r="J21">
-        <v>97.88</v>
+        <v>57.1</v>
       </c>
       <c r="K21" s="2">
         <v>44911</v>
@@ -2017,31 +2020,31 @@
         <v>335</v>
       </c>
       <c r="M21">
-        <v>79.42</v>
+        <v>42.8</v>
       </c>
       <c r="N21">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="O21">
-        <v>3.92</v>
+        <v>2.28</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>41.42</v>
+        <v>3.3</v>
       </c>
       <c r="R21">
         <v>24</v>
       </c>
       <c r="S21">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2052,64 +2055,64 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>743.9299999999999</v>
+        <v>2312.58</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22">
-        <v>57</v>
+        <v>1110</v>
       </c>
       <c r="F22">
-        <v>0.95</v>
+        <v>18.5</v>
       </c>
       <c r="G22">
-        <v>9.65</v>
+        <v>31.5</v>
       </c>
       <c r="H22">
-        <v>9.17</v>
+        <v>582.75</v>
       </c>
       <c r="I22">
-        <v>1985.34</v>
+        <v>749.4400000000001</v>
       </c>
       <c r="J22">
-        <v>97.88</v>
+        <v>61.72</v>
       </c>
       <c r="K22" s="2">
-        <v>44911</v>
+        <v>45093</v>
       </c>
       <c r="L22">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="M22">
-        <v>79.42</v>
+        <v>29.98</v>
       </c>
       <c r="N22">
-        <v>38</v>
+        <v>6.5</v>
       </c>
       <c r="O22">
-        <v>3.92</v>
+        <v>2.47</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41.42</v>
+        <v>23.48</v>
       </c>
       <c r="R22">
         <v>24</v>
       </c>
       <c r="S22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2120,64 +2123,64 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>2883.48</v>
+        <v>2312.58</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E23">
-        <v>92</v>
+        <v>804</v>
       </c>
       <c r="F23">
-        <v>1.53</v>
+        <v>13.4</v>
       </c>
       <c r="G23">
-        <v>23.56</v>
+        <v>31.5</v>
       </c>
       <c r="H23">
-        <v>36.05</v>
+        <v>422.1</v>
       </c>
       <c r="I23">
-        <v>991.87</v>
+        <v>749.4400000000001</v>
       </c>
       <c r="J23">
-        <v>107.52</v>
+        <v>61.72</v>
       </c>
       <c r="K23" s="2">
-        <v>44911</v>
+        <v>45093</v>
       </c>
       <c r="L23">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="M23">
-        <v>17.45</v>
+        <v>29.98</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="O23">
-        <v>4.3</v>
+        <v>2.47</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.45</v>
+        <v>23.48</v>
       </c>
       <c r="R23">
         <v>24</v>
       </c>
       <c r="S23">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>10.53</v>
+        <v>24</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2188,64 +2191,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>2883.48</v>
+        <v>2312.58</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="E24">
-        <v>4950</v>
+        <v>2899</v>
       </c>
       <c r="F24">
-        <v>82.5</v>
+        <v>48.32</v>
       </c>
       <c r="G24">
         <v>25.5</v>
       </c>
       <c r="H24">
-        <v>2103.75</v>
+        <v>1232.16</v>
       </c>
       <c r="I24">
-        <v>991.87</v>
+        <v>749.4400000000001</v>
       </c>
       <c r="J24">
-        <v>107.52</v>
+        <v>61.72</v>
       </c>
       <c r="K24" s="2">
-        <v>44911</v>
+        <v>45093</v>
       </c>
       <c r="L24">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="M24">
-        <v>17.45</v>
+        <v>29.98</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="O24">
-        <v>4.3</v>
+        <v>2.47</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.45</v>
+        <v>23.48</v>
       </c>
       <c r="R24">
         <v>24</v>
       </c>
       <c r="S24">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>10.53</v>
+        <v>24</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2256,64 +2259,64 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>2883.48</v>
+        <v>2312.58</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>1409</v>
+        <v>330</v>
       </c>
       <c r="F25">
+        <v>5.5</v>
+      </c>
+      <c r="G25">
+        <v>13.74</v>
+      </c>
+      <c r="H25">
+        <v>75.56999999999999</v>
+      </c>
+      <c r="I25">
+        <v>749.4400000000001</v>
+      </c>
+      <c r="J25">
+        <v>61.72</v>
+      </c>
+      <c r="K25" s="2">
+        <v>45093</v>
+      </c>
+      <c r="L25">
+        <v>153</v>
+      </c>
+      <c r="M25">
+        <v>29.98</v>
+      </c>
+      <c r="N25">
+        <v>6.5</v>
+      </c>
+      <c r="O25">
+        <v>2.47</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>23.48</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>991.87</v>
-      </c>
-      <c r="J25">
-        <v>107.52</v>
-      </c>
-      <c r="K25" s="2">
-        <v>44911</v>
-      </c>
-      <c r="L25">
-        <v>335</v>
-      </c>
-      <c r="M25">
-        <v>17.45</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>4.3</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>17.45</v>
-      </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>10.53</v>
+        <v>24</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2324,64 +2327,64 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>2883.48</v>
+        <v>1483.34</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>1438.8</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>23.98</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>11.81</v>
+        <v>25.5</v>
       </c>
       <c r="H26">
-        <v>283.2</v>
+        <v>25.5</v>
       </c>
       <c r="I26">
-        <v>991.87</v>
+        <v>931.01</v>
       </c>
       <c r="J26">
-        <v>107.52</v>
+        <v>58.17</v>
       </c>
       <c r="K26" s="2">
-        <v>44911</v>
+        <v>44958</v>
       </c>
       <c r="L26">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="M26">
-        <v>17.45</v>
+        <v>33.65</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="O26">
-        <v>4.3</v>
+        <v>2.33</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17.45</v>
+        <v>20.17</v>
       </c>
       <c r="R26">
         <v>24</v>
       </c>
       <c r="S26">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>10.53</v>
+        <v>24</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2392,64 +2395,64 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>2883.48</v>
+        <v>1483.34</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>708</v>
+        <v>3430</v>
       </c>
       <c r="F27">
-        <v>11.8</v>
+        <v>57.17</v>
       </c>
       <c r="G27">
-        <v>12.13</v>
+        <v>25.5</v>
       </c>
       <c r="H27">
-        <v>143.13</v>
+        <v>1457.84</v>
       </c>
       <c r="I27">
-        <v>991.87</v>
+        <v>931.01</v>
       </c>
       <c r="J27">
-        <v>107.52</v>
+        <v>58.17</v>
       </c>
       <c r="K27" s="2">
-        <v>44911</v>
+        <v>44958</v>
       </c>
       <c r="L27">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="M27">
-        <v>17.45</v>
+        <v>33.65</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="O27">
-        <v>4.3</v>
+        <v>2.33</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17.45</v>
+        <v>20.17</v>
       </c>
       <c r="R27">
         <v>24</v>
       </c>
       <c r="S27">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>10.53</v>
+        <v>24</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2460,31 +2463,31 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>2883.48</v>
+        <v>815.0999999999999</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <v>808.2</v>
+        <v>1463</v>
       </c>
       <c r="F28">
-        <v>13.47</v>
+        <v>24.38</v>
       </c>
       <c r="G28">
-        <v>23.56</v>
+        <v>25.5</v>
       </c>
       <c r="H28">
-        <v>317.35</v>
+        <v>621.6900000000001</v>
       </c>
       <c r="I28">
-        <v>991.87</v>
+        <v>1985.34</v>
       </c>
       <c r="J28">
-        <v>107.52</v>
+        <v>97.88</v>
       </c>
       <c r="K28" s="2">
         <v>44911</v>
@@ -2493,31 +2496,31 @@
         <v>335</v>
       </c>
       <c r="M28">
-        <v>17.45</v>
+        <v>79.42</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O28">
-        <v>4.3</v>
+        <v>3.92</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17.45</v>
+        <v>41.42</v>
       </c>
       <c r="R28">
         <v>24</v>
       </c>
       <c r="S28">
-        <v>13.47</v>
+        <v>24</v>
       </c>
       <c r="T28">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>10.53</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2528,64 +2531,64 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>2312.58</v>
+        <v>815.0999999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E29">
-        <v>1110</v>
+        <v>4410</v>
       </c>
       <c r="F29">
-        <v>18.5</v>
+        <v>73.5</v>
       </c>
       <c r="G29">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>582.75</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>749.4400000000001</v>
+        <v>1985.34</v>
       </c>
       <c r="J29">
-        <v>61.72</v>
+        <v>97.88</v>
       </c>
       <c r="K29" s="2">
-        <v>45093</v>
+        <v>44911</v>
       </c>
       <c r="L29">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="M29">
-        <v>29.98</v>
+        <v>79.42</v>
       </c>
       <c r="N29">
-        <v>6.5</v>
+        <v>38</v>
       </c>
       <c r="O29">
-        <v>2.47</v>
+        <v>3.92</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23.48</v>
+        <v>41.42</v>
       </c>
       <c r="R29">
         <v>24</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2596,64 +2599,64 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>2312.58</v>
+        <v>815.0999999999999</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
       </c>
       <c r="E30">
-        <v>804</v>
+        <v>486</v>
       </c>
       <c r="F30">
-        <v>13.4</v>
+        <v>8.1</v>
       </c>
       <c r="G30">
-        <v>31.5</v>
+        <v>12.75</v>
       </c>
       <c r="H30">
-        <v>422.1</v>
+        <v>103.28</v>
       </c>
       <c r="I30">
-        <v>749.4400000000001</v>
+        <v>1985.34</v>
       </c>
       <c r="J30">
-        <v>61.72</v>
+        <v>97.88</v>
       </c>
       <c r="K30" s="2">
-        <v>45093</v>
+        <v>44911</v>
       </c>
       <c r="L30">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="M30">
-        <v>29.98</v>
+        <v>79.42</v>
       </c>
       <c r="N30">
-        <v>6.5</v>
+        <v>38</v>
       </c>
       <c r="O30">
-        <v>2.47</v>
+        <v>3.92</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23.48</v>
+        <v>41.42</v>
       </c>
       <c r="R30">
         <v>24</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2664,64 +2667,64 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>2312.58</v>
+        <v>815.0999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E31">
-        <v>2899</v>
+        <v>474</v>
       </c>
       <c r="F31">
-        <v>48.32</v>
+        <v>7.9</v>
       </c>
       <c r="G31">
-        <v>25.5</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H31">
-        <v>1232.16</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="I31">
-        <v>749.4400000000001</v>
+        <v>1985.34</v>
       </c>
       <c r="J31">
-        <v>61.72</v>
+        <v>97.88</v>
       </c>
       <c r="K31" s="2">
-        <v>45093</v>
+        <v>44911</v>
       </c>
       <c r="L31">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="M31">
-        <v>29.98</v>
+        <v>79.42</v>
       </c>
       <c r="N31">
-        <v>6.5</v>
+        <v>38</v>
       </c>
       <c r="O31">
-        <v>2.47</v>
+        <v>3.92</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23.48</v>
+        <v>41.42</v>
       </c>
       <c r="R31">
         <v>24</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2732,64 +2735,64 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>2312.58</v>
+        <v>815.0999999999999</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>330</v>
+        <v>67.2</v>
       </c>
       <c r="F32">
-        <v>5.5</v>
+        <v>1.12</v>
       </c>
       <c r="G32">
-        <v>13.74</v>
+        <v>9.65</v>
       </c>
       <c r="H32">
-        <v>75.56999999999999</v>
+        <v>10.81</v>
       </c>
       <c r="I32">
-        <v>749.4400000000001</v>
+        <v>1985.34</v>
       </c>
       <c r="J32">
-        <v>61.72</v>
+        <v>97.88</v>
       </c>
       <c r="K32" s="2">
-        <v>45093</v>
+        <v>44911</v>
       </c>
       <c r="L32">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="M32">
-        <v>29.98</v>
+        <v>79.42</v>
       </c>
       <c r="N32">
-        <v>6.5</v>
+        <v>38</v>
       </c>
       <c r="O32">
-        <v>2.47</v>
+        <v>3.92</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23.48</v>
+        <v>41.42</v>
       </c>
       <c r="R32">
         <v>24</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2800,64 +2803,64 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>536</v>
+        <v>815.0999999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>804</v>
+        <v>57</v>
       </c>
       <c r="F33">
-        <v>13.4</v>
+        <v>0.95</v>
       </c>
       <c r="G33">
-        <v>40</v>
+        <v>9.65</v>
       </c>
       <c r="H33">
-        <v>536</v>
+        <v>9.17</v>
       </c>
       <c r="I33">
-        <v>22.15</v>
+        <v>1985.34</v>
       </c>
       <c r="J33">
-        <v>13.4</v>
+        <v>97.88</v>
       </c>
       <c r="K33" s="2">
-        <v>45210</v>
+        <v>44911</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="M33">
-        <v>0.89</v>
+        <v>79.42</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O33">
-        <v>0.54</v>
+        <v>3.92</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.89</v>
+        <v>41.42</v>
       </c>
       <c r="R33">
         <v>24</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2868,64 +2871,64 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>2409.75</v>
+        <v>1830</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>4350</v>
+        <v>2745</v>
       </c>
       <c r="F34">
-        <v>72.5</v>
+        <v>45.75</v>
       </c>
       <c r="G34">
-        <v>31.5</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>2283.75</v>
+        <v>1830</v>
       </c>
       <c r="I34">
-        <v>1355.2</v>
+        <v>1028.13</v>
       </c>
       <c r="J34">
-        <v>72.5</v>
+        <v>45.75</v>
       </c>
       <c r="K34" s="2">
-        <v>45006</v>
+        <v>44987</v>
       </c>
       <c r="L34">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="M34">
-        <v>54.21</v>
+        <v>41.12</v>
       </c>
       <c r="N34">
-        <v>28.85</v>
+        <v>37.5</v>
       </c>
       <c r="O34">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25.36</v>
+        <v>3.62</v>
       </c>
       <c r="R34">
         <v>24</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2936,64 +2939,64 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>2409.75</v>
+        <v>1060.8</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>480</v>
+        <v>61</v>
       </c>
       <c r="F35">
+        <v>1.02</v>
+      </c>
+      <c r="G35">
+        <v>25.5</v>
+      </c>
+      <c r="H35">
+        <v>26.01</v>
+      </c>
+      <c r="I35">
+        <v>1244.45</v>
+      </c>
+      <c r="J35">
+        <v>33.6</v>
+      </c>
+      <c r="K35" s="2">
+        <v>44911</v>
+      </c>
+      <c r="L35">
+        <v>335</v>
+      </c>
+      <c r="M35">
+        <v>49.79</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1.34</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>49.79</v>
+      </c>
+      <c r="R35">
+        <v>24</v>
+      </c>
+      <c r="S35">
+        <v>16</v>
+      </c>
+      <c r="T35">
         <v>8</v>
       </c>
-      <c r="G35">
-        <v>15.75</v>
-      </c>
-      <c r="H35">
-        <v>126</v>
-      </c>
-      <c r="I35">
-        <v>1355.2</v>
-      </c>
-      <c r="J35">
-        <v>72.5</v>
-      </c>
-      <c r="K35" s="2">
-        <v>45006</v>
-      </c>
-      <c r="L35">
-        <v>240</v>
-      </c>
-      <c r="M35">
-        <v>54.21</v>
-      </c>
-      <c r="N35">
-        <v>28.85</v>
-      </c>
-      <c r="O35">
-        <v>2.9</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>25.36</v>
-      </c>
-      <c r="R35">
-        <v>24</v>
-      </c>
-      <c r="S35">
+      <c r="U35">
         <v>8</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>16</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3004,31 +3007,31 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>2028.22</v>
+        <v>1060.8</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>1955</v>
       </c>
       <c r="F36">
-        <v>1.02</v>
+        <v>32.58</v>
       </c>
       <c r="G36">
-        <v>27.25</v>
+        <v>25.5</v>
       </c>
       <c r="H36">
-        <v>27.8</v>
+        <v>830.79</v>
       </c>
       <c r="I36">
-        <v>1638.93</v>
+        <v>1244.45</v>
       </c>
       <c r="J36">
-        <v>74.31999999999999</v>
+        <v>33.6</v>
       </c>
       <c r="K36" s="2">
         <v>44911</v>
@@ -3037,31 +3040,31 @@
         <v>335</v>
       </c>
       <c r="M36">
-        <v>65.56999999999999</v>
+        <v>49.79</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>2.97</v>
+        <v>1.34</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>65.56999999999999</v>
+        <v>49.79</v>
       </c>
       <c r="R36">
         <v>24</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U36">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3072,31 +3075,31 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>2028.22</v>
+        <v>1060.8</v>
       </c>
       <c r="D37" t="s">
         <v>61</v>
       </c>
       <c r="E37">
-        <v>4398</v>
+        <v>480</v>
       </c>
       <c r="F37">
-        <v>73.3</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>27.25</v>
+        <v>25.5</v>
       </c>
       <c r="H37">
-        <v>1997.42</v>
+        <v>204</v>
       </c>
       <c r="I37">
-        <v>1638.93</v>
+        <v>1244.45</v>
       </c>
       <c r="J37">
-        <v>74.31999999999999</v>
+        <v>33.6</v>
       </c>
       <c r="K37" s="2">
         <v>44911</v>
@@ -3105,31 +3108,31 @@
         <v>335</v>
       </c>
       <c r="M37">
-        <v>65.56999999999999</v>
+        <v>49.79</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>2.97</v>
+        <v>1.34</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>65.56999999999999</v>
+        <v>49.79</v>
       </c>
       <c r="R37">
         <v>24</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U37">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3140,52 +3143,52 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>2028.22</v>
+        <v>2146.09</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>4088</v>
       </c>
       <c r="F38">
-        <v>0.22</v>
+        <v>68.13</v>
       </c>
       <c r="G38">
-        <v>13.62</v>
+        <v>31.5</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2146.09</v>
       </c>
       <c r="I38">
-        <v>1638.93</v>
+        <v>174.25</v>
       </c>
       <c r="J38">
-        <v>74.31999999999999</v>
+        <v>68.13</v>
       </c>
       <c r="K38" s="2">
-        <v>44911</v>
+        <v>45215</v>
       </c>
       <c r="L38">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>65.56999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>65.56999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="R38">
         <v>24</v>
@@ -3208,52 +3211,52 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>1483.34</v>
+        <v>3005.23</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="G39">
-        <v>25.5</v>
+        <v>31.5</v>
       </c>
       <c r="H39">
-        <v>25.5</v>
+        <v>32.13</v>
       </c>
       <c r="I39">
-        <v>931.01</v>
+        <v>551.53</v>
       </c>
       <c r="J39">
-        <v>58.17</v>
+        <v>81.22</v>
       </c>
       <c r="K39" s="2">
-        <v>44958</v>
+        <v>45065</v>
       </c>
       <c r="L39">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="M39">
-        <v>33.65</v>
+        <v>22.06</v>
       </c>
       <c r="N39">
-        <v>13.48</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>2.33</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20.17</v>
+        <v>22.06</v>
       </c>
       <c r="R39">
         <v>24</v>
@@ -3276,52 +3279,52 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>1483.34</v>
+        <v>3005.23</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E40">
-        <v>3430</v>
+        <v>4812</v>
       </c>
       <c r="F40">
-        <v>57.17</v>
+        <v>80.2</v>
       </c>
       <c r="G40">
-        <v>25.5</v>
+        <v>31.5</v>
       </c>
       <c r="H40">
-        <v>1457.84</v>
+        <v>2526.3</v>
       </c>
       <c r="I40">
-        <v>931.01</v>
+        <v>551.53</v>
       </c>
       <c r="J40">
-        <v>58.17</v>
+        <v>81.22</v>
       </c>
       <c r="K40" s="2">
-        <v>44958</v>
+        <v>45065</v>
       </c>
       <c r="L40">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="M40">
-        <v>33.65</v>
+        <v>22.06</v>
       </c>
       <c r="N40">
-        <v>13.48</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>2.33</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20.17</v>
+        <v>22.06</v>
       </c>
       <c r="R40">
         <v>24</v>
@@ -3344,64 +3347,64 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>31.5</v>
+        <v>3005.23</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>490</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>8.17</v>
       </c>
       <c r="G41">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="H41">
-        <v>31.5</v>
+        <v>128.68</v>
       </c>
       <c r="I41">
-        <v>1743.56</v>
+        <v>551.53</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>81.22</v>
       </c>
       <c r="K41" s="2">
-        <v>44911</v>
+        <v>45065</v>
       </c>
       <c r="L41">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="M41">
-        <v>69.73</v>
+        <v>22.06</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0.04</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>69.73</v>
+        <v>22.06</v>
       </c>
       <c r="R41">
         <v>24</v>
       </c>
       <c r="S41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3415,61 +3418,61 @@
         <v>36</v>
       </c>
       <c r="C42">
-        <v>3380.219999999999</v>
+        <v>3005.23</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>15.75</v>
       </c>
       <c r="H42">
-        <v>36</v>
+        <v>118.12</v>
       </c>
       <c r="I42">
-        <v>1466.06</v>
+        <v>551.53</v>
       </c>
       <c r="J42">
-        <v>89.06999999999999</v>
+        <v>81.22</v>
       </c>
       <c r="K42" s="2">
-        <v>44971</v>
+        <v>45065</v>
       </c>
       <c r="L42">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="M42">
-        <v>58.64</v>
+        <v>22.06</v>
       </c>
       <c r="N42">
-        <v>31.98</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>3.56</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26.66</v>
+        <v>22.06</v>
       </c>
       <c r="R42">
         <v>24</v>
       </c>
       <c r="S42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3483,61 +3486,61 @@
         <v>36</v>
       </c>
       <c r="C43">
-        <v>3380.219999999999</v>
+        <v>3005.23</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43">
-        <v>3421</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>57.02</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="H43">
-        <v>2052.72</v>
+        <v>200</v>
       </c>
       <c r="I43">
-        <v>1466.06</v>
+        <v>551.53</v>
       </c>
       <c r="J43">
-        <v>89.06999999999999</v>
+        <v>81.22</v>
       </c>
       <c r="K43" s="2">
-        <v>44971</v>
+        <v>45065</v>
       </c>
       <c r="L43">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="M43">
-        <v>58.64</v>
+        <v>22.06</v>
       </c>
       <c r="N43">
-        <v>31.98</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>3.56</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26.66</v>
+        <v>22.06</v>
       </c>
       <c r="R43">
         <v>24</v>
       </c>
       <c r="S43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3548,64 +3551,64 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>3380.219999999999</v>
+        <v>2411.01</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44">
-        <v>1863</v>
+        <v>4350</v>
       </c>
       <c r="F44">
-        <v>31.05</v>
+        <v>72.5</v>
       </c>
       <c r="G44">
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="H44">
-        <v>1117.8</v>
+        <v>2283.75</v>
       </c>
       <c r="I44">
-        <v>1466.06</v>
+        <v>1355.2</v>
       </c>
       <c r="J44">
-        <v>89.06999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K44" s="2">
-        <v>44971</v>
+        <v>45006</v>
       </c>
       <c r="L44">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M44">
-        <v>58.64</v>
+        <v>54.21</v>
       </c>
       <c r="N44">
-        <v>31.98</v>
+        <v>28.85</v>
       </c>
       <c r="O44">
-        <v>3.56</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26.66</v>
+        <v>25.36</v>
       </c>
       <c r="R44">
         <v>24</v>
       </c>
       <c r="S44">
+        <v>8</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>16</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>8</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3616,64 +3619,64 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>3380.219999999999</v>
+        <v>2411.01</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E45">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F45">
-        <v>7.97</v>
+        <v>8.08</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>15.75</v>
       </c>
       <c r="H45">
-        <v>143.46</v>
+        <v>127.26</v>
       </c>
       <c r="I45">
-        <v>1466.06</v>
+        <v>1355.2</v>
       </c>
       <c r="J45">
-        <v>89.06999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K45" s="2">
-        <v>44971</v>
+        <v>45006</v>
       </c>
       <c r="L45">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M45">
-        <v>58.64</v>
+        <v>54.21</v>
       </c>
       <c r="N45">
-        <v>31.98</v>
+        <v>28.85</v>
       </c>
       <c r="O45">
-        <v>3.56</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26.66</v>
+        <v>25.36</v>
       </c>
       <c r="R45">
         <v>24</v>
       </c>
       <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
         <v>16</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>8</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -3684,64 +3687,64 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C46">
-        <v>3380.219999999999</v>
+        <v>2541.33</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E46">
-        <v>100.8</v>
+        <v>86</v>
       </c>
       <c r="F46">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="G46">
-        <v>18</v>
+        <v>28.5</v>
       </c>
       <c r="H46">
-        <v>30.24</v>
+        <v>40.75</v>
       </c>
       <c r="I46">
-        <v>1466.06</v>
+        <v>141.48</v>
       </c>
       <c r="J46">
-        <v>89.06999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="K46" s="2">
-        <v>44971</v>
+        <v>45222</v>
       </c>
       <c r="L46">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>58.64</v>
+        <v>5.66</v>
       </c>
       <c r="N46">
-        <v>31.98</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>3.56</v>
+        <v>2.63</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>26.66</v>
+        <v>5.66</v>
       </c>
       <c r="R46">
         <v>24</v>
       </c>
       <c r="S46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -3752,64 +3755,64 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>1060.8</v>
+        <v>2541.33</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>1440</v>
       </c>
       <c r="F47">
-        <v>1.02</v>
+        <v>24</v>
       </c>
       <c r="G47">
-        <v>25.5</v>
+        <v>31.5</v>
       </c>
       <c r="H47">
-        <v>26.01</v>
+        <v>756</v>
       </c>
       <c r="I47">
-        <v>1244.45</v>
+        <v>141.48</v>
       </c>
       <c r="J47">
-        <v>33.6</v>
+        <v>65.72</v>
       </c>
       <c r="K47" s="2">
-        <v>44911</v>
+        <v>45222</v>
       </c>
       <c r="L47">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>49.79</v>
+        <v>5.66</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1.34</v>
+        <v>2.63</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49.79</v>
+        <v>5.66</v>
       </c>
       <c r="R47">
         <v>24</v>
       </c>
       <c r="S47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -3820,64 +3823,64 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>1060.8</v>
+        <v>2541.33</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E48">
-        <v>1955</v>
+        <v>970</v>
       </c>
       <c r="F48">
-        <v>32.58</v>
+        <v>16.17</v>
       </c>
       <c r="G48">
-        <v>25.5</v>
+        <v>31.5</v>
       </c>
       <c r="H48">
-        <v>830.79</v>
+        <v>509.36</v>
       </c>
       <c r="I48">
-        <v>1244.45</v>
+        <v>141.48</v>
       </c>
       <c r="J48">
-        <v>33.6</v>
+        <v>65.72</v>
       </c>
       <c r="K48" s="2">
-        <v>44911</v>
+        <v>45222</v>
       </c>
       <c r="L48">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>49.79</v>
+        <v>5.66</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1.34</v>
+        <v>2.63</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>49.79</v>
+        <v>5.66</v>
       </c>
       <c r="R48">
         <v>24</v>
       </c>
       <c r="S48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -3888,64 +3891,64 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49">
-        <v>1060.8</v>
+        <v>2541.33</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>480</v>
+        <v>2397</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>39.95</v>
       </c>
       <c r="G49">
         <v>25.5</v>
       </c>
       <c r="H49">
-        <v>204</v>
+        <v>1018.72</v>
       </c>
       <c r="I49">
-        <v>1244.45</v>
+        <v>141.48</v>
       </c>
       <c r="J49">
-        <v>33.6</v>
+        <v>65.72</v>
       </c>
       <c r="K49" s="2">
-        <v>44911</v>
+        <v>45222</v>
       </c>
       <c r="L49">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>49.79</v>
+        <v>5.66</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1.34</v>
+        <v>2.63</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>49.79</v>
+        <v>5.66</v>
       </c>
       <c r="R49">
         <v>24</v>
       </c>
       <c r="S49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -3959,61 +3962,61 @@
         <v>38</v>
       </c>
       <c r="C50">
-        <v>1830</v>
+        <v>2541.33</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E50">
-        <v>2745</v>
+        <v>490</v>
       </c>
       <c r="F50">
-        <v>45.75</v>
+        <v>8.17</v>
       </c>
       <c r="G50">
-        <v>40</v>
+        <v>26.5</v>
       </c>
       <c r="H50">
-        <v>1830</v>
+        <v>216.5</v>
       </c>
       <c r="I50">
-        <v>1028.13</v>
+        <v>141.48</v>
       </c>
       <c r="J50">
-        <v>45.75</v>
+        <v>65.72</v>
       </c>
       <c r="K50" s="2">
-        <v>44987</v>
+        <v>45222</v>
       </c>
       <c r="L50">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>41.12</v>
+        <v>5.66</v>
       </c>
       <c r="N50">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>3.62</v>
+        <v>5.66</v>
       </c>
       <c r="R50">
         <v>24</v>
       </c>
       <c r="S50">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4027,61 +4030,61 @@
         <v>39</v>
       </c>
       <c r="C51">
-        <v>2541.33</v>
+        <v>3380.219999999999</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E51">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>28.5</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>40.75</v>
+        <v>36</v>
       </c>
       <c r="I51">
-        <v>141.48</v>
+        <v>1466.06</v>
       </c>
       <c r="J51">
-        <v>65.72</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="K51" s="2">
-        <v>45222</v>
+        <v>44971</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="M51">
-        <v>5.66</v>
+        <v>58.64</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="O51">
-        <v>2.63</v>
+        <v>3.56</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>5.66</v>
+        <v>26.66</v>
       </c>
       <c r="R51">
         <v>24</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4095,61 +4098,61 @@
         <v>39</v>
       </c>
       <c r="C52">
-        <v>2541.33</v>
+        <v>3380.219999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E52">
-        <v>1440</v>
+        <v>3421</v>
       </c>
       <c r="F52">
-        <v>24</v>
+        <v>57.02</v>
       </c>
       <c r="G52">
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>756</v>
+        <v>2052.72</v>
       </c>
       <c r="I52">
-        <v>141.48</v>
+        <v>1466.06</v>
       </c>
       <c r="J52">
-        <v>65.72</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="K52" s="2">
-        <v>45222</v>
+        <v>44971</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="M52">
-        <v>5.66</v>
+        <v>58.64</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="O52">
-        <v>2.63</v>
+        <v>3.56</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>5.66</v>
+        <v>26.66</v>
       </c>
       <c r="R52">
         <v>24</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4163,61 +4166,61 @@
         <v>39</v>
       </c>
       <c r="C53">
-        <v>2541.33</v>
+        <v>3380.219999999999</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E53">
-        <v>970</v>
+        <v>1863</v>
       </c>
       <c r="F53">
-        <v>16.17</v>
+        <v>31.05</v>
       </c>
       <c r="G53">
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>509.36</v>
+        <v>1117.8</v>
       </c>
       <c r="I53">
-        <v>141.48</v>
+        <v>1466.06</v>
       </c>
       <c r="J53">
-        <v>65.72</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="K53" s="2">
-        <v>45222</v>
+        <v>44971</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="M53">
-        <v>5.66</v>
+        <v>58.64</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="O53">
-        <v>2.63</v>
+        <v>3.56</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5.66</v>
+        <v>26.66</v>
       </c>
       <c r="R53">
         <v>24</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4231,61 +4234,61 @@
         <v>39</v>
       </c>
       <c r="C54">
-        <v>2541.33</v>
+        <v>3380.219999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E54">
-        <v>2397</v>
+        <v>478</v>
       </c>
       <c r="F54">
-        <v>39.95</v>
+        <v>7.97</v>
       </c>
       <c r="G54">
-        <v>25.5</v>
+        <v>18</v>
       </c>
       <c r="H54">
-        <v>1018.72</v>
+        <v>143.46</v>
       </c>
       <c r="I54">
-        <v>141.48</v>
+        <v>1466.06</v>
       </c>
       <c r="J54">
-        <v>65.72</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="K54" s="2">
-        <v>45222</v>
+        <v>44971</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="M54">
-        <v>5.66</v>
+        <v>58.64</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="O54">
-        <v>2.63</v>
+        <v>3.56</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>5.66</v>
+        <v>26.66</v>
       </c>
       <c r="R54">
         <v>24</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4299,61 +4302,61 @@
         <v>39</v>
       </c>
       <c r="C55">
-        <v>2541.33</v>
+        <v>3380.219999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>490</v>
+        <v>100.8</v>
       </c>
       <c r="F55">
-        <v>8.17</v>
+        <v>1.68</v>
       </c>
       <c r="G55">
-        <v>26.5</v>
+        <v>18</v>
       </c>
       <c r="H55">
-        <v>216.5</v>
+        <v>30.24</v>
       </c>
       <c r="I55">
-        <v>141.48</v>
+        <v>1466.06</v>
       </c>
       <c r="J55">
-        <v>65.72</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="K55" s="2">
-        <v>45222</v>
+        <v>44971</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="M55">
-        <v>5.66</v>
+        <v>58.64</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="O55">
-        <v>2.63</v>
+        <v>3.56</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5.66</v>
+        <v>26.66</v>
       </c>
       <c r="R55">
         <v>24</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4367,61 +4370,61 @@
         <v>40</v>
       </c>
       <c r="C56">
-        <v>1211.16</v>
+        <v>536</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E56">
-        <v>85</v>
+        <v>804</v>
       </c>
       <c r="F56">
-        <v>1.42</v>
+        <v>13.4</v>
       </c>
       <c r="G56">
-        <v>22.85</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>32.45</v>
+        <v>536</v>
       </c>
       <c r="I56">
-        <v>1697.62</v>
+        <v>22.15</v>
       </c>
       <c r="J56">
-        <v>58.9</v>
+        <v>13.4</v>
       </c>
       <c r="K56" s="2">
-        <v>44911</v>
+        <v>45210</v>
       </c>
       <c r="L56">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="M56">
-        <v>67.90000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>2.36</v>
+        <v>0.54</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>51.9</v>
+        <v>0.89</v>
       </c>
       <c r="R56">
         <v>24</v>
       </c>
       <c r="S56">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -4432,31 +4435,31 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>1211.16</v>
+        <v>2883.48</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E57">
-        <v>2456</v>
+        <v>92</v>
       </c>
       <c r="F57">
-        <v>40.93</v>
+        <v>1.53</v>
       </c>
       <c r="G57">
-        <v>26.25</v>
+        <v>23.56</v>
       </c>
       <c r="H57">
-        <v>1074.41</v>
+        <v>36.05</v>
       </c>
       <c r="I57">
-        <v>1697.62</v>
+        <v>991.87</v>
       </c>
       <c r="J57">
-        <v>58.9</v>
+        <v>107.52</v>
       </c>
       <c r="K57" s="2">
         <v>44911</v>
@@ -4465,31 +4468,31 @@
         <v>335</v>
       </c>
       <c r="M57">
-        <v>67.90000000000001</v>
+        <v>17.45</v>
       </c>
       <c r="N57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>51.9</v>
+        <v>17.45</v>
       </c>
       <c r="R57">
         <v>24</v>
       </c>
       <c r="S57">
-        <v>24</v>
+        <v>13.47</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -4500,31 +4503,31 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58">
-        <v>1211.16</v>
+        <v>2883.48</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E58">
-        <v>993</v>
+        <v>4950</v>
       </c>
       <c r="F58">
-        <v>16.55</v>
+        <v>82.5</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2103.75</v>
       </c>
       <c r="I58">
-        <v>1697.62</v>
+        <v>991.87</v>
       </c>
       <c r="J58">
-        <v>58.9</v>
+        <v>107.52</v>
       </c>
       <c r="K58" s="2">
         <v>44911</v>
@@ -4533,31 +4536,31 @@
         <v>335</v>
       </c>
       <c r="M58">
-        <v>67.90000000000001</v>
+        <v>17.45</v>
       </c>
       <c r="N58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>51.9</v>
+        <v>17.45</v>
       </c>
       <c r="R58">
         <v>24</v>
       </c>
       <c r="S58">
-        <v>24</v>
+        <v>13.47</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -4568,31 +4571,31 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59">
-        <v>1211.16</v>
+        <v>2883.48</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E59">
-        <v>477</v>
+        <v>1409</v>
       </c>
       <c r="F59">
-        <v>7.95</v>
+        <v>23.48</v>
       </c>
       <c r="G59">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>104.3</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1697.62</v>
+        <v>991.87</v>
       </c>
       <c r="J59">
-        <v>58.9</v>
+        <v>107.52</v>
       </c>
       <c r="K59" s="2">
         <v>44911</v>
@@ -4601,31 +4604,31 @@
         <v>335</v>
       </c>
       <c r="M59">
-        <v>67.90000000000001</v>
+        <v>17.45</v>
       </c>
       <c r="N59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>51.9</v>
+        <v>17.45</v>
       </c>
       <c r="R59">
         <v>24</v>
       </c>
       <c r="S59">
-        <v>24</v>
+        <v>13.47</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -4639,61 +4642,61 @@
         <v>41</v>
       </c>
       <c r="C60">
-        <v>3002.55</v>
+        <v>2883.48</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E60">
-        <v>61</v>
+        <v>1438.8</v>
       </c>
       <c r="F60">
-        <v>1.02</v>
+        <v>23.98</v>
       </c>
       <c r="G60">
-        <v>31.5</v>
+        <v>11.81</v>
       </c>
       <c r="H60">
-        <v>32.13</v>
+        <v>283.2</v>
       </c>
       <c r="I60">
-        <v>551.53</v>
+        <v>991.87</v>
       </c>
       <c r="J60">
-        <v>81.22</v>
+        <v>107.52</v>
       </c>
       <c r="K60" s="2">
-        <v>45065</v>
+        <v>44911</v>
       </c>
       <c r="L60">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="M60">
-        <v>22.06</v>
+        <v>17.45</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22.06</v>
+        <v>17.45</v>
       </c>
       <c r="R60">
         <v>24</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="U60">
-        <v>24</v>
+        <v>10.53</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -4707,61 +4710,61 @@
         <v>41</v>
       </c>
       <c r="C61">
-        <v>3002.55</v>
+        <v>2883.48</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E61">
-        <v>4812</v>
+        <v>708</v>
       </c>
       <c r="F61">
-        <v>80.2</v>
+        <v>11.8</v>
       </c>
       <c r="G61">
-        <v>31.5</v>
+        <v>12.13</v>
       </c>
       <c r="H61">
-        <v>2526.3</v>
+        <v>143.13</v>
       </c>
       <c r="I61">
-        <v>551.53</v>
+        <v>991.87</v>
       </c>
       <c r="J61">
-        <v>81.22</v>
+        <v>107.52</v>
       </c>
       <c r="K61" s="2">
-        <v>45065</v>
+        <v>44911</v>
       </c>
       <c r="L61">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="M61">
-        <v>22.06</v>
+        <v>17.45</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22.06</v>
+        <v>17.45</v>
       </c>
       <c r="R61">
         <v>24</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="U61">
-        <v>24</v>
+        <v>10.53</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -4775,61 +4778,61 @@
         <v>41</v>
       </c>
       <c r="C62">
-        <v>3002.55</v>
+        <v>2883.48</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62">
-        <v>480</v>
+        <v>808.2</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>13.47</v>
       </c>
       <c r="G62">
-        <v>15.75</v>
+        <v>23.56</v>
       </c>
       <c r="H62">
-        <v>126</v>
+        <v>317.35</v>
       </c>
       <c r="I62">
-        <v>551.53</v>
+        <v>991.87</v>
       </c>
       <c r="J62">
-        <v>81.22</v>
+        <v>107.52</v>
       </c>
       <c r="K62" s="2">
-        <v>45065</v>
+        <v>44911</v>
       </c>
       <c r="L62">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="M62">
-        <v>22.06</v>
+        <v>17.45</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22.06</v>
+        <v>17.45</v>
       </c>
       <c r="R62">
         <v>24</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="U62">
-        <v>24</v>
+        <v>10.53</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -4840,64 +4843,64 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C63">
-        <v>3002.55</v>
+        <v>1213.53</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E63">
-        <v>450</v>
+        <v>85</v>
       </c>
       <c r="F63">
-        <v>7.5</v>
+        <v>1.42</v>
       </c>
       <c r="G63">
-        <v>15.75</v>
+        <v>22.85</v>
       </c>
       <c r="H63">
-        <v>118.12</v>
+        <v>32.45</v>
       </c>
       <c r="I63">
-        <v>551.53</v>
+        <v>1697.62</v>
       </c>
       <c r="J63">
-        <v>81.22</v>
+        <v>58.9</v>
       </c>
       <c r="K63" s="2">
-        <v>45065</v>
+        <v>44911</v>
       </c>
       <c r="L63">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="M63">
-        <v>22.06</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22.06</v>
+        <v>51.9</v>
       </c>
       <c r="R63">
         <v>24</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -4908,64 +4911,64 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64">
-        <v>3002.55</v>
+        <v>1213.53</v>
       </c>
       <c r="D64" t="s">
         <v>68</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>2456</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>40.93</v>
       </c>
       <c r="G64">
-        <v>200</v>
+        <v>26.25</v>
       </c>
       <c r="H64">
-        <v>200</v>
+        <v>1074.41</v>
       </c>
       <c r="I64">
-        <v>551.53</v>
+        <v>1697.62</v>
       </c>
       <c r="J64">
-        <v>81.22</v>
+        <v>58.9</v>
       </c>
       <c r="K64" s="2">
-        <v>45065</v>
+        <v>44911</v>
       </c>
       <c r="L64">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="M64">
-        <v>22.06</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O64">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22.06</v>
+        <v>51.9</v>
       </c>
       <c r="R64">
         <v>24</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -4979,63 +4982,131 @@
         <v>42</v>
       </c>
       <c r="C65">
-        <v>2146.09</v>
+        <v>1213.53</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E65">
-        <v>4088</v>
+        <v>993</v>
       </c>
       <c r="F65">
-        <v>68.13</v>
+        <v>16.55</v>
       </c>
       <c r="G65">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2146.09</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>174.25</v>
+        <v>1697.62</v>
       </c>
       <c r="J65">
-        <v>68.13</v>
+        <v>58.9</v>
       </c>
       <c r="K65" s="2">
-        <v>45215</v>
+        <v>44911</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="M65">
-        <v>6.98</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O65">
-        <v>2.73</v>
+        <v>2.36</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>6.98</v>
+        <v>51.9</v>
       </c>
       <c r="R65">
         <v>24</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66">
+        <v>1213.53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>488</v>
+      </c>
+      <c r="F66">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="G66">
+        <v>13.12</v>
+      </c>
+      <c r="H66">
+        <v>106.67</v>
+      </c>
+      <c r="I66">
+        <v>1697.62</v>
+      </c>
+      <c r="J66">
+        <v>58.9</v>
+      </c>
+      <c r="K66" s="2">
+        <v>44911</v>
+      </c>
+      <c r="L66">
+        <v>335</v>
+      </c>
+      <c r="M66">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="N66">
+        <v>16</v>
+      </c>
+      <c r="O66">
+        <v>2.36</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>51.9</v>
+      </c>
+      <c r="R66">
+        <v>24</v>
+      </c>
+      <c r="S66">
+        <v>24</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
         <v>0</v>
       </c>
     </row>
@@ -5060,19 +5131,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5080,7 +5151,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>31.05</v>
@@ -5103,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -5149,7 +5220,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>40.93</v>
@@ -5195,7 +5266,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>73.3</v>
@@ -5218,7 +5289,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>31.95</v>
@@ -5241,7 +5312,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>220.83</v>
@@ -5264,7 +5335,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>57.1</v>
@@ -5287,7 +5358,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>57.02</v>
@@ -5310,7 +5381,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>42.5</v>
@@ -5338,7 +5409,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>12857.85</v>
